--- a/natmiOut/OldD2/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +97,7 @@
     <t>Gucy2c</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +528,619 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.8312</v>
+      </c>
+      <c r="H2">
+        <v>1.6624</v>
+      </c>
+      <c r="I2">
+        <v>0.3272630345142022</v>
+      </c>
+      <c r="J2">
+        <v>0.2675867375230682</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.05747633333333333</v>
+      </c>
+      <c r="N2">
+        <v>0.172429</v>
+      </c>
+      <c r="O2">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="P2">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="Q2">
+        <v>0.04777432826666667</v>
+      </c>
+      <c r="R2">
+        <v>0.2866459696</v>
+      </c>
+      <c r="S2">
+        <v>0.03990554832700368</v>
+      </c>
+      <c r="T2">
+        <v>0.03262878589921725</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.8312</v>
+      </c>
+      <c r="H3">
+        <v>1.6624</v>
+      </c>
+      <c r="I3">
+        <v>0.3272630345142022</v>
+      </c>
+      <c r="J3">
+        <v>0.2675867375230682</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.4138836666666667</v>
+      </c>
+      <c r="N3">
+        <v>1.241651</v>
+      </c>
+      <c r="O3">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="P3">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="Q3">
+        <v>0.3440201037333334</v>
+      </c>
+      <c r="R3">
+        <v>2.0641206224</v>
+      </c>
+      <c r="S3">
+        <v>0.2873574861871986</v>
+      </c>
+      <c r="T3">
+        <v>0.234957951623851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01873166666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.056195</v>
+      </c>
+      <c r="I4">
+        <v>0.007375098742591272</v>
+      </c>
+      <c r="J4">
+        <v>0.009045378197250251</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05747633333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.172429</v>
+      </c>
+      <c r="O4">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="P4">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="Q4">
+        <v>0.001076627517222222</v>
+      </c>
+      <c r="R4">
+        <v>0.009689647655</v>
+      </c>
+      <c r="S4">
+        <v>0.0008992991210442621</v>
+      </c>
+      <c r="T4">
+        <v>0.001102968373199298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01873166666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.056195</v>
+      </c>
+      <c r="I5">
+        <v>0.007375098742591272</v>
+      </c>
+      <c r="J5">
+        <v>0.009045378197250251</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4138836666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.241651</v>
+      </c>
+      <c r="O5">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="P5">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="Q5">
+        <v>0.007752730882777779</v>
+      </c>
+      <c r="R5">
+        <v>0.069774577945</v>
+      </c>
+      <c r="S5">
+        <v>0.006475799621547009</v>
+      </c>
+      <c r="T5">
+        <v>0.007942409824050953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6831296666666667</v>
+      </c>
+      <c r="H6">
+        <v>2.049389</v>
+      </c>
+      <c r="I6">
+        <v>0.2689642537054966</v>
+      </c>
+      <c r="J6">
+        <v>0.329878077734398</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05747633333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.172429</v>
+      </c>
+      <c r="O6">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="P6">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="Q6">
+        <v>0.03926378843122223</v>
+      </c>
+      <c r="R6">
+        <v>0.353374095881</v>
+      </c>
+      <c r="S6">
+        <v>0.03279675640853776</v>
+      </c>
+      <c r="T6">
+        <v>0.04022441945693632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6831296666666667</v>
+      </c>
+      <c r="H7">
+        <v>2.049389</v>
+      </c>
+      <c r="I7">
+        <v>0.2689642537054966</v>
+      </c>
+      <c r="J7">
+        <v>0.329878077734398</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4138836666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.241651</v>
+      </c>
+      <c r="O7">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="P7">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="Q7">
+        <v>0.2827362112487778</v>
+      </c>
+      <c r="R7">
+        <v>2.544625901239</v>
+      </c>
+      <c r="S7">
+        <v>0.2361674972969589</v>
+      </c>
+      <c r="T7">
+        <v>0.2896536582774616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.5719074168884331</v>
-      </c>
-      <c r="H2">
-        <v>0.5719074168884331</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.302721358481329</v>
-      </c>
-      <c r="N2">
-        <v>0.302721358481329</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.1731285901660142</v>
-      </c>
-      <c r="R2">
-        <v>0.1731285901660142</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4309976666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.292993</v>
+      </c>
+      <c r="I8">
+        <v>0.1696939416047569</v>
+      </c>
+      <c r="J8">
+        <v>0.2081254683049594</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05747633333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.172429</v>
+      </c>
+      <c r="O8">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="P8">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="Q8">
+        <v>0.02477216555522222</v>
+      </c>
+      <c r="R8">
+        <v>0.222949489997</v>
+      </c>
+      <c r="S8">
+        <v>0.02069200940326334</v>
+      </c>
+      <c r="T8">
+        <v>0.02537824336272053</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4309976666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.292993</v>
+      </c>
+      <c r="I9">
+        <v>0.1696939416047569</v>
+      </c>
+      <c r="J9">
+        <v>0.2081254683049594</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4138836666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.241651</v>
+      </c>
+      <c r="O9">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="P9">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="Q9">
+        <v>0.1783828946047778</v>
+      </c>
+      <c r="R9">
+        <v>1.605446051443</v>
+      </c>
+      <c r="S9">
+        <v>0.1490019322014936</v>
+      </c>
+      <c r="T9">
+        <v>0.1827472249422389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5757939999999999</v>
+      </c>
+      <c r="H10">
+        <v>1.151588</v>
+      </c>
+      <c r="I10">
+        <v>0.226703671432953</v>
+      </c>
+      <c r="J10">
+        <v>0.1853643382403242</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05747633333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.172429</v>
+      </c>
+      <c r="O10">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="P10">
+        <v>0.1219372312740439</v>
+      </c>
+      <c r="Q10">
+        <v>0.03309452787533333</v>
+      </c>
+      <c r="R10">
+        <v>0.198567167252</v>
+      </c>
+      <c r="S10">
+        <v>0.02764361801419484</v>
+      </c>
+      <c r="T10">
+        <v>0.02260281418197051</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5757939999999999</v>
+      </c>
+      <c r="H11">
+        <v>1.151588</v>
+      </c>
+      <c r="I11">
+        <v>0.226703671432953</v>
+      </c>
+      <c r="J11">
+        <v>0.1853643382403242</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4138836666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.241651</v>
+      </c>
+      <c r="O11">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="P11">
+        <v>0.8780627687259561</v>
+      </c>
+      <c r="Q11">
+        <v>0.2383117319646667</v>
+      </c>
+      <c r="R11">
+        <v>1.429870391788</v>
+      </c>
+      <c r="S11">
+        <v>0.1990600534187581</v>
+      </c>
+      <c r="T11">
+        <v>0.1627615240583537</v>
       </c>
     </row>
   </sheetData>
